--- a/who_test_controls_analysis_results.xlsx
+++ b/who_test_controls_analysis_results.xlsx
@@ -451,9 +451,9 @@
     <col width="14.3" customWidth="1" min="6" max="6"/>
     <col width="12.1" customWidth="1" min="7" max="7"/>
     <col width="13.2" customWidth="1" min="8" max="8"/>
-    <col width="22" customWidth="1" min="9" max="9"/>
+    <col width="20.9" customWidth="1" min="9" max="9"/>
     <col width="12.1" customWidth="1" min="10" max="10"/>
-    <col width="23.1" customWidth="1" min="11" max="11"/>
+    <col width="19.8" customWidth="1" min="11" max="11"/>
     <col width="20.9" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
@@ -529,16 +529,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>54.4806</v>
+        <v>81.25092000000001</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Excellent</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>WHEN, ESCALATION</t>
+          <t>ESCALATION</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -547,16 +547,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I2" t="n">
-        <v>15.4806</v>
+        <v>80.83640000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>63.3</v>
+        <v>59.8</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3</v>
+        <v>87.66666666666666</v>
       </c>
       <c r="J3" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>60.425</v>
+        <v>62.3</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -643,16 +643,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>26.925</v>
+        <v>96</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>35</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -673,11 +673,11 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>51.8625</v>
+        <v>40.54600000000001</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>Needs Improvement</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -691,16 +691,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>24.8625</v>
+        <v>56.82000000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>61.11818181818181</v>
+        <v>60.6677</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>WHEN, ESCALATION</t>
+          <t>ESCALATION</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -739,23 +739,23 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="I6" t="n">
-        <v>24.11818181818181</v>
+        <v>55.55899999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes (2)</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30.59999999999999</v>
+        <v>28.3375</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>WHO, WHEN</t>
+          <t>WHO, WHEN, ESCALATION</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -793,13 +793,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>25.3</v>
+        <v>86.125</v>
       </c>
       <c r="J7" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>28.775</v>
+        <v>37.70308</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -826,7 +826,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>WHO, WHEN, ESCALATION</t>
+          <t>WHO, ESCALATION</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="I8" t="n">
-        <v>25.275</v>
+        <v>57.34360000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>35</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>22.472</v>
+        <v>39.06875</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>WHO, WHEN, ESCALATION</t>
+          <t>WHO, ESCALATION</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -886,13 +886,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="I9" t="n">
-        <v>18.972</v>
+        <v>59.56249999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>42</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -924,7 +924,7 @@
   <cols>
     <col width="13.2" customWidth="1" min="1" max="1"/>
     <col width="44" customWidth="1" min="2" max="2"/>
-    <col width="16.5" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
     <col width="50" customWidth="1" min="4" max="4"/>
     <col width="50" customWidth="1" min="5" max="5"/>
     <col width="23.1" customWidth="1" min="6" max="6"/>
@@ -973,17 +973,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>monthly, on a monthly basis, monthly basis</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>on a monthly basis monitors the production queue</t>
+          <t>monitors the production queue</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>to ensure all customer cards are issued within sla timelines, On a monthly basis, the Global Card Issuance (GCI) team monitors the production queue to ensure all customer cards are issued within SLA timelines.</t>
+          <t>to ensure all customer cards are issued within sla timelines</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The global mobility services team validates the accuracy of data related to colleague's legal right to work in foreign jurisdictions.</t>
+          <t>to ensure compliance and accuracy</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>to ensure proper authorization</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1068,12 +1068,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>review all new or modified customer - facing materials</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>All new or modified customer-facing materials must be reviewed and approved by key stakeholders, including the Product team and Compliance.</t>
+          <t>to ensure accuracy and completeness</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>prior to filing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>performs a variance analysis between balances from x and y sources prior to filing</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Changes to risk ratings are reviewed and approved by appropriate personnel before reporting.</t>
+          <t>to prevent unauthorized actions</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1153,17 +1153,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>prior to disbursement</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>review pac distributions</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>to ensure proper authorization</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1183,17 +1183,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>prior to being finalized and used in campaigns</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>reviewed</t>
+          <t>related to customer management</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>to prevent unauthorized actions</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1223,9 +1223,9 @@
   <cols>
     <col width="13.2" customWidth="1" min="1" max="1"/>
     <col width="25.3" customWidth="1" min="2" max="2"/>
-    <col width="47.3" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
     <col width="50" customWidth="1" min="4" max="4"/>
-    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="15.4" customWidth="1" min="5" max="5"/>
     <col width="50" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -1272,17 +1272,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Unable to analyze timing due to an error.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Replace weak verb 'monitors' with a stronger control verb like 'track', 'supervise', or 'observe'</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Control has a WHY statement focused on completeness.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Unable to analyze timing due to an error.</t>
+          <t>No specific timing information detected. Add specific frequency (daily, weekly, monthly) or timing (within X days).</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Control has a WHY statement focused on accuracy.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Unable to analyze timing due to an error.</t>
+          <t>No specific timing information detected. Add specific frequency (daily, weekly, monthly) or timing (within X days).</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Control has an implied authorization purpose but lacks an explicit WHY statement. Consider adding: 'This control is designed to ensure proper authorization'</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1362,17 +1362,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Unable to analyze timing due to an error.</t>
+          <t>No specific timing information detected. Add specific frequency (daily, weekly, monthly) or timing (within X days).</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consider clarifying the object of 'approve' to be more specific.</t>
+          <t>Consider using active voice to clearly indicate who performs the control; Consider clarifying the object of 'review' to be more specific.; Consider using active voice to clearly indicate responsibility for control activities.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Control has a WHY statement focused on compliance. Consider specifying which regulations or policies this control supports.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1392,17 +1392,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Unable to analyze timing due to an error.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consider clarifying the object of 'approve' to be more specific.</t>
+          <t>Replace weak verb 'performs' with a stronger control verb like 'verify', 'examine', or 'evaluate'; Consider using active voice to clearly indicate responsibility for control activities.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Control has a WHY statement focused on compliance. Consider specifying which regulations or policies this control supports.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1422,17 +1422,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Unable to analyze timing due to an error.</t>
+          <t>No specific timing information detected. Add specific frequency (daily, weekly, monthly) or timing (within X days).</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consider clarifying the object of 'approve' to be more specific.</t>
+          <t>Consider clarifying the object of 'approve' to be more specific.; Consider using active voice to clearly indicate responsibility for control activities.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Control has a clear risk mitigation purpose.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1452,17 +1452,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Unable to analyze timing due to an error.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consider clarifying the object of 'approve' to be more specific.</t>
+          <t>Consider using active voice to clearly indicate who performs the control; Consider clarifying the object of 'review' to be more specific.; Consider using active voice to clearly indicate responsibility for control activities.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Control has an implied completeness purpose but lacks an explicit WHY statement. Consider adding: 'to ensure accuracy and completeness'</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1482,17 +1482,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Unable to analyze timing due to an error.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consider clarifying the object of 'review' to be more specific.</t>
+          <t>Consider clarifying the object of 'relate' to be more specific.; Consider using active voice to clearly indicate responsibility for control activities.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Control has an implied completeness purpose but lacks an explicit WHY statement. Consider adding: 'to ensure accuracy and completeness'</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1512,7 +1512,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1561,12 +1561,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>review all new or modified customer - facing materials</t>
         </is>
       </c>
     </row>
@@ -1611,6 +1611,50 @@
       <c r="D4" t="inlineStr">
         <is>
           <t>approved</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>10575-1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>The Regulatory Reporting team performs a variance analysis between balances from X and Y sources prior to filing.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>performs a variance analysis between balances from x and y sources prior to filing</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>10575-2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>The results are reviewed and approved by the Regulatory Reporting Manager and Director.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>review the results</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1711,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>51.2</t>
         </is>
       </c>
     </row>
@@ -1690,7 +1734,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1700,7 +1744,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1710,7 +1754,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1724,7 +1768,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1759,7 +1803,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>8 (100.0%)</t>
+          <t>4 (50.0%)</t>
         </is>
       </c>
     </row>
@@ -1795,7 +1839,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>7 (87.5%)</t>
+          <t>8 (100.0%)</t>
         </is>
       </c>
     </row>

--- a/who_test_controls_analysis_results.xlsx
+++ b/who_test_controls_analysis_results.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,16 +445,18 @@
   <cols>
     <col width="13.2" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
-    <col width="22" customWidth="1" min="3" max="3"/>
+    <col width="20.9" customWidth="1" min="3" max="3"/>
     <col width="20.9" customWidth="1" min="4" max="4"/>
-    <col width="25.3" customWidth="1" min="5" max="5"/>
+    <col width="19.8" customWidth="1" min="5" max="5"/>
     <col width="14.3" customWidth="1" min="6" max="6"/>
-    <col width="12.1" customWidth="1" min="7" max="7"/>
+    <col width="20.9" customWidth="1" min="7" max="7"/>
     <col width="13.2" customWidth="1" min="8" max="8"/>
     <col width="20.9" customWidth="1" min="9" max="9"/>
     <col width="12.1" customWidth="1" min="10" max="10"/>
     <col width="19.8" customWidth="1" min="11" max="11"/>
     <col width="20.9" customWidth="1" min="12" max="12"/>
+    <col width="22" customWidth="1" min="13" max="13"/>
+    <col width="50" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -518,6 +520,16 @@
           <t>Multiple Controls</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Control Type Valid</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Control Type Message</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -529,7 +541,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>81.25092000000001</v>
+        <v>87.56764800000001</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -547,7 +559,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="H2" t="n">
         <v>90</v>
@@ -564,6 +576,16 @@
       <c r="L2" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Control type in description does not indicate detective</t>
         </is>
       </c>
     </row>
@@ -577,7 +599,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>59.8</v>
+        <v>63.90333333333333</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -612,6 +634,16 @@
       <c r="L3" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Control type in description does not indicate detective</t>
         </is>
       </c>
     </row>
@@ -625,7 +657,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>62.3</v>
+        <v>66.56999999999999</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -660,6 +692,16 @@
       <c r="L4" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Control type in description (before) is consistent with preventive</t>
         </is>
       </c>
     </row>
@@ -673,7 +715,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>40.54600000000001</v>
+        <v>25.4724</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -691,7 +733,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -708,6 +750,16 @@
       <c r="L5" t="inlineStr">
         <is>
           <t>Yes (3)</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Control type in description does not indicate detective</t>
         </is>
       </c>
     </row>
@@ -721,7 +773,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>60.6677</v>
+        <v>56.57888</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -739,7 +791,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H6" t="n">
         <v>85</v>
@@ -756,6 +808,16 @@
       <c r="L6" t="inlineStr">
         <is>
           <t>Yes (2)</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Control type in description does not indicate detective</t>
         </is>
       </c>
     </row>
@@ -769,16 +831,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>28.3375</v>
+        <v>56.08</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Needs Improvement</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>WHO, WHEN, ESCALATION</t>
+          <t>WHEN, ESCALATION</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -787,7 +849,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -804,6 +866,16 @@
       <c r="L7" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Control type in description does not indicate detective</t>
         </is>
       </c>
     </row>
@@ -817,16 +889,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>37.70308</v>
+        <v>66.49995200000001</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Needs Improvement</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>WHO, ESCALATION</t>
+          <t>ESCALATION</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -835,7 +907,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H8" t="n">
         <v>85</v>
@@ -852,6 +924,16 @@
       <c r="L8" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Control type in description does not indicate detective</t>
         </is>
       </c>
     </row>
@@ -865,16 +947,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>39.06875</v>
+        <v>55.82</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Needs Improvement</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>WHO, ESCALATION</t>
+          <t>ESCALATION</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -883,7 +965,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="H9" t="n">
         <v>85</v>
@@ -900,6 +982,16 @@
       <c r="L9" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Control type in description does not indicate detective</t>
         </is>
       </c>
     </row>
@@ -923,7 +1015,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.2" customWidth="1" min="1" max="1"/>
-    <col width="44" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
     <col width="50" customWidth="1" min="4" max="4"/>
     <col width="50" customWidth="1" min="5" max="5"/>
@@ -1058,7 +1150,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>the Product team and Compliance</t>
+          <t>All new or modified customer-facing materials</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1088,7 +1180,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Regulatory Reporting Manager</t>
+          <t>The Regulatory Reporting team</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1118,7 +1210,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Unknown Performer</t>
+          <t>Changes to risk ratings</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1148,7 +1240,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Unknown Performer</t>
+          <t>PAC distributions</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1178,7 +1270,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Unknown Performer</t>
+          <t>Communications</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1222,7 +1314,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.2" customWidth="1" min="1" max="1"/>
-    <col width="25.3" customWidth="1" min="2" max="2"/>
+    <col width="15.4" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
     <col width="50" customWidth="1" min="4" max="4"/>
     <col width="15.4" customWidth="1" min="5" max="5"/>
@@ -1417,7 +1509,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>No performer detected</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1447,7 +1539,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>No performer detected</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1477,7 +1569,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>No performer detected</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1669,7 +1761,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1711,7 +1803,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>59.8</t>
         </is>
       </c>
     </row>
@@ -1744,7 +1836,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1754,7 +1846,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1791,7 +1883,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3 (37.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
     </row>
@@ -1864,6 +1956,42 @@
       <c r="B21" t="inlineStr">
         <is>
           <t>1 (12.5%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Control Type Validation</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Valid Control Type</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1 (12.5%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Invalid Control Type</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>7 (87.5%)</t>
         </is>
       </c>
     </row>
@@ -1878,7 +2006,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2061,7 +2189,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>WHO: 30%</t>
+          <t>WHO: 32%</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -2069,7 +2197,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>WHEN: 20%</t>
+          <t>WHEN: 22%</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -2077,7 +2205,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>WHAT: 30%</t>
+          <t>WHAT: 32%</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -2085,7 +2213,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>WHY: 10%</t>
+          <t>WHY: 11%</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -2173,6 +2301,46 @@
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>Enhanced Validation Checks</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Control Type Validation:</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Validates consistency between control actions and declared control type.</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Provides context-specific feedback for preventive, detective, corrective, and automated controls.</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/who_test_controls_analysis_results.xlsx
+++ b/who_test_controls_analysis_results.xlsx
@@ -1357,21 +1357,9 @@
       <c r="A2" t="n">
         <v>12651</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>None</t>
@@ -1387,71 +1375,43 @@
       <c r="A3" t="n">
         <v>11102</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>No specific timing information detected. Add specific frequency (daily, weekly, monthly) or timing (within X days).</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>6463</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>No specific timing information detected. Add specific frequency (daily, weekly, monthly) or timing (within X days).</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>7140</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>No specific timing information detected. Add specific frequency (daily, weekly, monthly) or timing (within X days).</t>
@@ -1467,26 +1427,14 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>10575</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
           <t>Replace weak verb 'performs' with a stronger control verb like 'verify', 'examine', or 'evaluate'; Consider using active voice to clearly indicate responsibility for control activities.</t>
@@ -1497,21 +1445,13 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>4645</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>No specific timing information detected. Add specific frequency (daily, weekly, monthly) or timing (within X days).</t>
@@ -1537,16 +1477,8 @@
       <c r="A8" t="n">
         <v>4310</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
           <t>Consider using active voice to clearly indicate who performs the control; Consider clarifying the object of 'review' to be more specific.; Consider using active voice to clearly indicate responsibility for control activities.</t>
@@ -1557,26 +1489,14 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>3867</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
           <t>Consider clarifying the object of 'relate' to be more specific.; Consider using active voice to clearly indicate responsibility for control activities.</t>
@@ -1587,11 +1507,7 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1612,10 +1528,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="60" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="30" customWidth="1" min="4" max="4"/>
+    <col width="13.2" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="7.700000000000001" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1670,7 +1586,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-facing materials must be reviewed</t>
+          <t>'-facing materials must be reviewed</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1940,7 +1856,7 @@
       <c r="B19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Top Vague Terms</t>
         </is>
@@ -2041,7 +1957,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>This analysis evaluates control descriptions based on seven key elements that should be present in a well-written control description:</t>
+          <t>This analysis evaluates control descriptions based on five key elements that should be present in a well-written control description:</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -2307,7 +2223,7 @@
       <c r="B41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="inlineStr">
+      <c r="A42" t="inlineStr">
         <is>
           <t>Enhanced Validation Checks</t>
         </is>
